--- a/doc/gipoClassMap.xlsx
+++ b/doc/gipoClassMap.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="Gearシステム" sheetId="3" r:id="rId1"/>
     <sheet name="Gearの処理順序" sheetId="2" r:id="rId2"/>
-    <sheet name="全体マップ" sheetId="1" r:id="rId3"/>
-    <sheet name="データ階層構造" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -4769,810 +4767,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>380247</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>117696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>407407</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>108641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2987645" y="280658"/>
-          <a:ext cx="1330859" cy="479833"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Top</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>72429</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160602</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>401373</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="曲線コネクタ 62"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="83" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1376128" y="812452"/>
-          <a:ext cx="1632643" cy="1831158"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>455693</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>347804</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99589</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="曲線コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="85" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4366790" y="801889"/>
-          <a:ext cx="1847660" cy="1090286"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>401372</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>49600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76956</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="フローチャート : 判断 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3008770" y="701450"/>
-          <a:ext cx="327434" cy="222003"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>128259</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>39037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>455693</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98078</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート : 判断 84"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4039356" y="690887"/>
-          <a:ext cx="327434" cy="222003"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>206345</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>42533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>233505</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33478</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="892145" y="3128633"/>
-          <a:ext cx="1398760" cy="505295"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Logic</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>72995</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100155</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52528</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6245195" y="3147683"/>
-          <a:ext cx="1398760" cy="505295"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>View</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25370</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>52530</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3454370" y="3090533"/>
-          <a:ext cx="1398760" cy="505295"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Hook</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>235389</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45266</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>54322</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="887239" y="715225"/>
-          <a:ext cx="2417275" cy="642796"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Detail</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>サーバー等で用意されるデータ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251987</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61864</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="903837" y="1655277"/>
-          <a:ext cx="2417275" cy="642796"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Entity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バトルを開始（再開）するのに十分なデータ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>259531</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>51305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69408</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="911381" y="2658703"/>
-          <a:ext cx="2417275" cy="642796"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Logic</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データの処理を扱う</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>461726</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3064597" y="3073654"/>
-          <a:ext cx="656377" cy="348557"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Gear</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45266</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>58849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61864</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21126</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="曲線コネクタ 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3304514" y="1036623"/>
-          <a:ext cx="16598" cy="940052"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1477274"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61864</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69408</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>46778</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="曲線コネクタ 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3321112" y="1976675"/>
-          <a:ext cx="7544" cy="1003426"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 3130223"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5905,36 +5099,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/gipoClassMap.xlsx
+++ b/doc/gipoClassMap.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="60" windowWidth="20640" windowHeight="12765" activeTab="1"/>
+    <workbookView xWindow="450" yWindow="60" windowWidth="20640" windowHeight="12765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gearシステム" sheetId="3" r:id="rId1"/>
     <sheet name="Gearの処理順序" sheetId="2" r:id="rId2"/>
+    <sheet name="親子関係の処理順序" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2600,7 +2601,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>diffusibleHandler</a:t>
+            <a:t>initializeHandler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3624,7 +3625,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>addDiffusibleHandler</a:t>
+            <a:t>addInitializeHandler</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4767,6 +4768,1582 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="352424"/>
+          <a:ext cx="1590675" cy="6372226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TopGear</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="923925"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>initializeHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="619126"/>
+          <a:ext cx="1847850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>initializeTop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="1228726"/>
+          <a:ext cx="1847850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fulfill</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="361950"/>
+          <a:ext cx="1590675" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ChildGear</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="342900"/>
+          <a:ext cx="1590675" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GrandchildGear</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1924050"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>initializeHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1619251"/>
+          <a:ext cx="1847850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>setParent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="2228851"/>
+          <a:ext cx="1847850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fulfill</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2595562" y="671513"/>
+          <a:ext cx="247650" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="2905125"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>initializeHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="2600326"/>
+          <a:ext cx="1847850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>setParent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="3209926"/>
+          <a:ext cx="1847850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fulfill</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5395912" y="1690688"/>
+          <a:ext cx="228600" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="3524250"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>runHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="カギ線コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4600576" y="3652837"/>
+          <a:ext cx="1838325" cy="357187"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="4010025"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>runHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="4467224"/>
+          <a:ext cx="1847850" cy="2152651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>runHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="1"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1838326" y="4138612"/>
+          <a:ext cx="1838325" cy="328611"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152524" y="4733925"/>
+          <a:ext cx="1743076" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="EFF0CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addChild(laterChild)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="4829176"/>
+          <a:ext cx="1590675" cy="1704974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LayerChildGear</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5448300"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>initializeHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5143501"/>
+          <a:ext cx="1847850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>setParent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5753101"/>
+          <a:ext cx="1847850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fulfill</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="6067425"/>
+          <a:ext cx="1847850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>runHandler</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2707480" y="4317206"/>
+          <a:ext cx="266702" cy="1633538"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2000251" y="6191251"/>
+          <a:ext cx="1666875" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5082,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5099,4 +6676,20 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/gipoClassMap.xlsx
+++ b/doc/gipoClassMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="60" windowWidth="20640" windowHeight="12765" activeTab="2"/>
+    <workbookView xWindow="450" yWindow="60" windowWidth="20640" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Gearシステム" sheetId="3" r:id="rId1"/>
@@ -2600,8 +2600,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>diffusible</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>initializeHandler</a:t>
+            <a:t>Handler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3625,7 +3637,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>addInitializeHandler</a:t>
+            <a:t>addDiffusibleHandler</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4892,8 +4904,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>diffusible</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>initializeHandler</a:t>
+            <a:t>Handler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5203,7 +5227,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>initializeHandler</a:t>
+            <a:t>diffusibleHandler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5426,8 +5450,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>diffusible</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>initializeHandler</a:t>
+            <a:t>Handler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6059,8 +6095,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>diffusible</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>initializeHandler</a:t>
+            <a:t>Handler</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6638,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6659,8 +6707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6682,7 +6730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
